--- a/plot/ucacheline_nums.xlsx
+++ b/plot/ucacheline_nums.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21624"/>
+    <workbookView windowWidth="22044" windowHeight="9996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,14 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,18 +132,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,70 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +185,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -246,16 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,8 +482,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,32 +536,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,170 +562,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,13 +1095,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1170,43 +1170,41 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6">
-        <v>1.26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6">
-        <v>1.24</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6">
-        <v>1.24</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
-        <v>1.06</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6">
-        <v>0.58</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6">
-        <v>1.39</v>
+        <v>16</v>
       </c>
       <c r="I2" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1.12</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1.23</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
+        <v>16</v>
+      </c>
       <c r="N2" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="O2" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="O2" s="6"/>
       <c r="P2" s="6">
-        <v>1.55</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="6">
-        <v>1.09</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:17">
@@ -1214,40 +1212,40 @@
         <v>17</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="6">
-        <v>1.193</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.118</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.128</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.614</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.57</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.847</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.776</v>
+      <c r="C3" s="2">
+        <v>4.487002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.820365</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.854796</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.837625</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.524139</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.480989</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.558416</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="6">
-        <v>0.589</v>
+      <c r="N3" s="2">
+        <v>4.060108</v>
       </c>
       <c r="O3" s="4"/>
-      <c r="P3" s="6">
-        <v>1.545</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1.03</v>
+      <c r="P3" s="2">
+        <v>4.195096</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.558994</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:17">
@@ -1255,81 +1253,61 @@
         <v>18</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="6">
-        <v>1.262</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.145</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.143</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.847</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.573</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.216</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.782</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6">
-        <v>0.586</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="6">
-        <v>1.546</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1.073</v>
-      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" ht="14.55" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>1.195</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.142</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1.152</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.735</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.573</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.328</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.809</v>
+      <c r="C5" s="2">
+        <v>4.717776</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.998747</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.057157</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.274752</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.89656</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.980989</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.903633</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="6">
-        <v>0.586</v>
+      <c r="N5" s="2">
+        <v>4.438698</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="6">
-        <v>1.546</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1.065</v>
+      <c r="P5" s="2">
+        <v>5.534829</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.18226</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="1:17">
@@ -1337,40 +1315,40 @@
         <v>20</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>1.261</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.153</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.157</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.576</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.782</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.788</v>
+      <c r="C6" s="2">
+        <v>7.522332</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.808355</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.789826</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.707953</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.437643</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6.788263</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.485656</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0.562</v>
+      <c r="N6" s="2">
+        <v>6.291461</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>1.55</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1.043</v>
+      <c r="P6" s="2">
+        <v>6.833592</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6.857656</v>
       </c>
     </row>
     <row r="7" ht="14.55" spans="1:17">
@@ -1378,82 +1356,126 @@
         <v>21</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.12</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1.114</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.581</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.567</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.742</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.783</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0.549</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7">
-        <v>1.556</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1.028</v>
-      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="6">
-        <v>1.246</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.127</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.753</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.569</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.189</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.776</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="6">
-        <v>0.589</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="6">
-        <v>1.545</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1.063</v>
-      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
